--- a/test_protocol.xlsx
+++ b/test_protocol.xlsx
@@ -1,103 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagin.n\PycharmProjects\psc_web\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet11" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
-  <si>
-    <t>Измерения</t>
-  </si>
-  <si>
-    <t>Канал</t>
-  </si>
-  <si>
-    <t>Uном</t>
-  </si>
-  <si>
-    <t>Uфакт</t>
-  </si>
-  <si>
-    <t>дультаU</t>
-  </si>
-  <si>
-    <t>IN1</t>
-  </si>
-  <si>
-    <t>IN2</t>
-  </si>
-  <si>
-    <t>OUT1</t>
-  </si>
-  <si>
-    <t>OUT2</t>
-  </si>
-  <si>
-    <t>Iном</t>
-  </si>
-  <si>
-    <t>Iфакт</t>
-  </si>
-  <si>
-    <t>дультаI</t>
-  </si>
-  <si>
-    <t>Функционал</t>
-  </si>
-  <si>
-    <t>Серийный номер: 4790000000</t>
-  </si>
-  <si>
-    <t>Пороги по напряжению</t>
-  </si>
-  <si>
-    <t>Аварийные режимы</t>
-  </si>
-  <si>
-    <t>Связь с датчиком</t>
-  </si>
-  <si>
-    <t>Провалы по напряжению</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -109,7 +52,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -118,15 +61,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -137,6 +74,54 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -151,9 +136,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -164,79 +147,134 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="17">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -526,178 +564,509 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Серийный номер: 4790000000</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="n"/>
+      <c r="C1" s="11" t="n"/>
+      <c r="D1" s="11" t="n"/>
+      <c r="E1" s="11" t="n"/>
+      <c r="F1" s="11" t="n"/>
+      <c r="G1" s="11" t="n"/>
+      <c r="H1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Измерения</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="n"/>
+      <c r="C2" s="12" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="n"/>
+      <c r="G2" s="12" t="n"/>
+      <c r="H2" s="13" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Канал</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Uном</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Uфакт</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>дультаU</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Канал</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Iном</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Iфакт</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>дультаI</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>IN1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>OUT1</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="10" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>IN2</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>OUT2</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>IN1</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>OUT1</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>OUT2</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>Функционал</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>Пороги по напряжению</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>Провалы по напряжению</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>Аварийные режимы</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>Связь с датчиком</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="15" t="inlineStr">
+        <is>
+          <t>col_1</t>
+        </is>
+      </c>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>col_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="11"/>
+    <col customWidth="1" max="2" min="2" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="15" t="inlineStr">
+        <is>
+          <t>col_1</t>
+        </is>
+      </c>
+      <c r="B1" s="14" t="inlineStr">
+        <is>
+          <t>col_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="15" t="inlineStr">
+        <is>
+          <t>col_1</t>
+        </is>
+      </c>
+      <c r="B26" s="14" t="inlineStr">
+        <is>
+          <t>col_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>